--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\PageObjectModelBasics\com.PTC.uiFramework\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F9F24-8523-4BBA-85DA-149D420F4488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C282B3E-3A6B-4488-B14C-8FADEEB8DF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36327315-3C2E-4E60-B5F8-D91EC9FD6D2D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Customer_Name</t>
   </si>
@@ -214,16 +214,34 @@
     <t>C400 Colonnade Society Kharadi Pune</t>
   </si>
   <si>
-    <t>phjgdsf</t>
-  </si>
-  <si>
-    <t>dfgyyrshert</t>
-  </si>
-  <si>
-    <t>krtrhfhd3@abc.com</t>
-  </si>
-  <si>
-    <t>afsoo@abc.com</t>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>aA12a@abc.com</t>
+  </si>
+  <si>
+    <t>b23Db@abc.com</t>
+  </si>
+  <si>
+    <t>cC34c@abc.com</t>
+  </si>
+  <si>
+    <t>d32dD1@abc.com</t>
   </si>
 </sst>
 </file>
@@ -292,7 +310,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3714A9AF-8D34-4AF4-B9EF-FBC86FFD6655}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +673,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -676,7 +694,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>49</v>
@@ -684,7 +702,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -705,10 +723,68 @@
         <v>58</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\PageObjectModelBasics\com.PTC.uiFramework\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C282B3E-3A6B-4488-B14C-8FADEEB8DF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF422AAD-1104-4A60-AB91-84EF4C606304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36327315-3C2E-4E60-B5F8-D91EC9FD6D2D}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>dd</t>
   </si>
   <si>
-    <t>aA12a@abc.com</t>
-  </si>
-  <si>
     <t>b23Db@abc.com</t>
   </si>
   <si>
@@ -242,13 +239,16 @@
   </si>
   <si>
     <t>d32dD1@abc.com</t>
+  </si>
+  <si>
+    <t>aA1ss2a@abc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +258,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,18 +309,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,7 +639,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,8 +704,8 @@
       <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>66</v>
+      <c r="H2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>49</v>
@@ -723,7 +734,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
@@ -752,7 +763,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>51</v>
@@ -781,7 +792,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>52</v>
@@ -789,8 +800,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{5C895F50-5558-4397-B9EA-035BE2A958EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\PageObjectModelBasics\com.PTC.uiFramework\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF422AAD-1104-4A60-AB91-84EF4C606304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD171B66-53F5-4039-8FCC-5D21E78EFDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36327315-3C2E-4E60-B5F8-D91EC9FD6D2D}"/>
   </bookViews>
@@ -232,23 +232,23 @@
     <t>dd</t>
   </si>
   <si>
-    <t>b23Db@abc.com</t>
-  </si>
-  <si>
-    <t>cC34c@abc.com</t>
-  </si>
-  <si>
-    <t>d32dD1@abc.com</t>
-  </si>
-  <si>
-    <t>aA1ss2a@abc.com</t>
+    <t>r2arr@abc.com</t>
+  </si>
+  <si>
+    <t>bpooDb@abc.com</t>
+  </si>
+  <si>
+    <t>chhp34c@abc.com</t>
+  </si>
+  <si>
+    <t>lllD1@abc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,14 +258,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,21 +301,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,7 +628,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,8 +693,8 @@
       <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>69</v>
+      <c r="H2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>49</v>
@@ -734,7 +723,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
@@ -763,7 +752,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>51</v>
@@ -792,7 +781,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>52</v>
@@ -800,11 +789,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{5C895F50-5558-4397-B9EA-035BE2A958EB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
